--- a/phpexcel/demo_2.xlsx
+++ b/phpexcel/demo_2.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="demo1" sheetId="1" r:id="rId4"/>
+    <sheet name="Baili中php文件目录" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
